--- a/tests/data/experiments/lr-xval-xlsx/output/folds/03/output/lr_xval_xlsx_fold03_confMatrix.xlsx
+++ b/tests/data/experiments/lr-xval-xlsx/output/folds/03/output/lr_xval_xlsx_fold03_confMatrix.xlsx
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -482,13 +482,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -508,16 +508,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -534,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -557,16 +557,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
